--- a/FormulariodeUsodeEquiponuevo.xlsx
+++ b/FormulariodeUsodeEquiponuevo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgonzalez\Desktop\LIA\TICs\Formularios de uso de Equipos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qnfeh\OneDrive\문서\NetBeansProjects\PhpProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="135" windowWidth="9405" windowHeight="4995"/>
+    <workbookView xWindow="96" yWindow="132" windowWidth="9408" windowHeight="4992"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>FECHA :</t>
   </si>
@@ -164,13 +164,52 @@
   </si>
   <si>
     <t>DIRECCION DE ADMINISTRACION Y FINANZAS</t>
+  </si>
+  <si>
+    <t>[onshow.x_out]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.x_desc]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.x_brand]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.x_model]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.x_serial]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.x_barcode]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.x_curr]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.x_future]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.x_detail]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.x_out]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -213,6 +252,12 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -335,54 +380,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,7 +563,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -593,6 +638,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -628,6 +690,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -806,93 +885,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="4.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="2"/>
+    <col min="5" max="5" width="4.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -903,13 +982,15 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -917,10 +998,10 @@
       <c r="I11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
         <v>20</v>
@@ -929,27 +1010,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -959,20 +1042,22 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="C18" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -982,20 +1067,22 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="C20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -1005,20 +1092,22 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -1028,20 +1117,22 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="C24" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1052,21 +1143,23 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="32"/>
       <c r="E26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>24</v>
       </c>
@@ -1077,8 +1170,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1182,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -1098,19 +1191,19 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="41"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="11"/>
       <c r="F31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="42"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="7"/>
       <c r="E32" s="11"/>
@@ -1120,20 +1213,22 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="D33" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="12"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
     </row>
-    <row r="34" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="D34" s="19"/>
       <c r="E34" s="11"/>
@@ -1145,7 +1240,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="D35" s="7"/>
       <c r="E35" s="11"/>
@@ -1156,20 +1251,22 @@
       <c r="J35" s="11"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
+      <c r="D36" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="27"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
     </row>
-    <row r="37" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="D37" s="19"/>
       <c r="E37" s="11"/>
@@ -1181,7 +1278,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
     </row>
-    <row r="38" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1191,11 +1288,13 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="39"/>
+      <c r="C39" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -1205,7 +1304,7 @@
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
     </row>
-    <row r="40" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -1217,7 +1316,7 @@
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
     </row>
-    <row r="41" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -1228,7 +1327,7 @@
       <c r="J41" s="40"/>
       <c r="K41" s="40"/>
     </row>
-    <row r="42" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1236,18 +1335,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
+    <row r="43" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="3"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
@@ -1256,37 +1355,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-    </row>
-    <row r="46" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+    </row>
+    <row r="46" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
       <c r="H46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-    </row>
-    <row r="47" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+    </row>
+    <row r="47" spans="1:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1294,7 +1393,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1302,7 +1401,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>30</v>
       </c>
@@ -1317,14 +1416,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -1334,7 +1433,7 @@
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1348,35 +1447,35 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
       <c r="H53" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-    </row>
-    <row r="54" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
       <c r="H54" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-    </row>
-    <row r="55" spans="1:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+    </row>
+    <row r="55" spans="1:18" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1389,21 +1488,21 @@
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
     </row>
-    <row r="56" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-    </row>
-    <row r="57" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+    </row>
+    <row r="57" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -1416,7 +1515,7 @@
       <c r="K57" s="23"/>
       <c r="L57" s="12"/>
     </row>
-    <row r="58" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>45</v>
       </c>
@@ -1438,13 +1537,13 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+    <row r="59" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
       <c r="G59" s="4" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1552,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -1463,7 +1562,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -1471,12 +1570,11 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H43:K43"/>
     <mergeCell ref="I53:K53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C40:K40"/>
@@ -1505,6 +1603,7 @@
     <mergeCell ref="C41:K41"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:K43"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1523,93 +1622,95 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FormulariodeUsodeEquiponuevo.xlsx
+++ b/FormulariodeUsodeEquiponuevo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qnfeh\OneDrive\문서\NetBeansProjects\PhpProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APM_Setup\htdocs\PhpProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -386,18 +386,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -408,22 +423,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,19 +957,19 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -986,11 +986,11 @@
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -998,8 +998,8 @@
       <c r="I11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
@@ -1021,14 +1021,14 @@
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
@@ -1046,14 +1046,14 @@
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
@@ -1071,14 +1071,14 @@
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
@@ -1096,14 +1096,14 @@
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
@@ -1121,14 +1121,14 @@
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
@@ -1147,16 +1147,16 @@
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="30"/>
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,12 +1217,12 @@
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="12"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -1255,12 +1255,12 @@
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="27"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -1292,40 +1292,40 @@
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
     </row>
     <row r="40" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
     </row>
     <row r="41" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
     </row>
     <row r="42" spans="1:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="3"/>
@@ -1336,15 +1336,15 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="3"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
     </row>
     <row r="44" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
@@ -1359,31 +1359,31 @@
       <c r="B45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
       <c r="H46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
     </row>
     <row r="47" spans="1:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
@@ -1451,29 +1451,29 @@
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
       <c r="H53" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
       <c r="H54" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
     </row>
     <row r="55" spans="1:18" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
@@ -1492,15 +1492,15 @@
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
     </row>
     <row r="57" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
@@ -1538,12 +1538,12 @@
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
       <c r="G59" s="4" t="s">
         <v>4</v>
       </c>
@@ -1575,19 +1575,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="D36:G36"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="A9:K9"/>
@@ -1604,6 +1591,19 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="H43:K43"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="D36:G36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/FormulariodeUsodeEquiponuevo.xlsx
+++ b/FormulariodeUsodeEquiponuevo.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>FECHA :</t>
   </si>
@@ -190,19 +190,27 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>[onshow.x_curr]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[onshow.x_future]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>[onshow.x_detail]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[onshow.x_out]</t>
+  </si>
+  <si>
+    <t>[onshow.dar_person]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.rcv_person]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.dar_dept]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[onshow.rcv_dept]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -260,7 +268,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,12 +278,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -383,47 +385,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:E45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,54 +921,54 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -986,11 +985,11 @@
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -998,8 +997,8 @@
       <c r="I11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
@@ -1021,14 +1020,14 @@
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
@@ -1046,14 +1045,14 @@
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
@@ -1071,14 +1070,14 @@
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
@@ -1096,14 +1095,14 @@
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
@@ -1121,14 +1120,14 @@
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
@@ -1147,16 +1146,16 @@
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="30"/>
+      <c r="C26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="31"/>
       <c r="E26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1200,7 +1199,7 @@
       <c r="F31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="29"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,12 +1216,12 @@
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="D33" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="12"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -1255,12 +1254,12 @@
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
+      <c r="D36" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
       <c r="H36" s="27"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -1292,40 +1291,40 @@
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
+      <c r="C39" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
     </row>
     <row r="41" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="3"/>
@@ -1336,15 +1335,15 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="3"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
     </row>
     <row r="44" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
@@ -1359,31 +1358,35 @@
       <c r="B45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
+      <c r="C45" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
+      <c r="I45" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
     </row>
     <row r="46" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
       <c r="H46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
     </row>
     <row r="47" spans="1:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
@@ -1451,29 +1454,29 @@
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
       <c r="H53" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
     </row>
     <row r="54" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
       <c r="H54" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
     </row>
     <row r="55" spans="1:18" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
@@ -1492,15 +1495,15 @@
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
     </row>
     <row r="57" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
@@ -1538,12 +1541,12 @@
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
       <c r="G59" s="4" t="s">
         <v>4</v>
       </c>
@@ -1575,6 +1578,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="D36:G36"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="A9:K9"/>
@@ -1591,19 +1607,6 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="H43:K43"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="D36:G36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
